--- a/Data_clean/MCAS/Estados_US/Edos_USA_2010/RHODE_ISLAND_2010.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2010/RHODE_ISLAND_2010.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Huehuetan</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Mazatan</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Distrito Federal</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Penjamo</t>
@@ -556,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Total</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Jose Azueta</t>
@@ -613,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Petatlan</t>
@@ -626,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>San Luis Acatlan</t>
@@ -639,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -652,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Total</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Chilcuautla</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juarez</t>
@@ -735,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Tlahuiltepa</t>
@@ -748,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Yahualica</t>
@@ -761,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Zimapan</t>
@@ -774,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -818,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Ocotlan</t>
@@ -831,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -862,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -875,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -888,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Jocotitlan</t>
@@ -901,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Naucalpan De Juarez</t>
@@ -914,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Nezahualcoyotl</t>
@@ -927,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Mexico</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Total</t>
@@ -958,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Tarimbaro</t>
@@ -971,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -984,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Tuzantla</t>
@@ -997,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Zitacuaro</t>
@@ -1010,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Michoacan De Ocampo</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1041,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1072,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1199,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Queretaro De Arteaga</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1230,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Ciudad Del Maiz</t>
@@ -1243,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Ciudad Fernandez</t>
@@ -1256,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>San Luis Potosi</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1287,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1318,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Cardenas</t>
@@ -1331,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Cunduacan</t>
@@ -1344,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -1357,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1388,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1419,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -1432,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -1445,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Temapache</t>
@@ -1458,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -1471,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1484,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1515,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Total</t>
